--- a/drumbox/v1.1/bom/DRUMBOX_BOM.xlsx
+++ b/drumbox/v1.1/bom/DRUMBOX_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\synthe modulaire\Synth\Drumbox\V1.1\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F93166-4F2C-4C28-B97B-A3E687B34BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520A51D5-FAEA-4E43-8039-13F34509523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="105">
   <si>
     <t>References</t>
   </si>
@@ -106,24 +106,6 @@
     <t>LED_D4.0mm</t>
   </si>
   <si>
-    <t>SW1, SW3</t>
-  </si>
-  <si>
-    <t>Hpass/Lpass Switch</t>
-  </si>
-  <si>
-    <t>SW_DPDT_Toggle</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>Bandpass</t>
-  </si>
-  <si>
-    <t>SW_Toggle_Blue_wSlots</t>
-  </si>
-  <si>
     <t>Potentiometer_Bourns_PTV09A-1_Single_Vertical</t>
   </si>
   <si>
@@ -176,12 +158,6 @@
   </si>
   <si>
     <t>OpAmp</t>
-  </si>
-  <si>
-    <t>https://www.taydaelectronics.com/mini-toggle-switch-dpdt-on-on.html</t>
-  </si>
-  <si>
-    <t>https://www.taydaelectronics.com/mini-toggle-switch-spdt-on-on.html</t>
   </si>
   <si>
     <t>https://www.mouser.fr/ProductDetail/652-PTV09A4025FB104</t>
@@ -654,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -939,10 +915,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -981,22 +957,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B2" s="22">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3">
         <v>0.01</v>
@@ -1008,22 +984,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B3" s="22">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3">
         <v>0.01</v>
@@ -1035,22 +1011,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B4" s="22">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3">
         <v>0.01</v>
@@ -1062,22 +1038,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B5" s="22">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3">
         <v>0.01</v>
@@ -1089,22 +1065,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B6" s="22">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3">
         <v>0.01</v>
@@ -1122,16 +1098,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3">
         <v>0.01</v>
@@ -1143,22 +1119,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B8" s="22">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G8" s="3">
         <v>0.01</v>
@@ -1170,22 +1146,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B9" s="22">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3">
         <v>0.01</v>
@@ -1197,7 +1173,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B10" s="22">
         <v>2</v>
@@ -1209,22 +1185,22 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1">
         <v>0.02</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" ref="H10:H34" si="1">G10*B10</f>
+        <f t="shared" ref="H10:H32" si="1">G10*B10</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B11" s="22">
         <v>2</v>
@@ -1236,10 +1212,10 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1">
         <v>0.02</v>
@@ -1251,22 +1227,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B12" s="22">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3">
         <v>0.01</v>
@@ -1278,22 +1254,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B13" s="22">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3">
         <v>0.01</v>
@@ -1305,20 +1281,20 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B14" s="22">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G14" s="1">
         <v>0.08</v>
@@ -1329,23 +1305,23 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>81</v>
+      <c r="A15" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B15" s="22">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1">
         <v>1.4999999999999999E-2</v>
@@ -1356,23 +1332,23 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>83</v>
+      <c r="A16" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B16" s="2">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1">
         <v>1.4999999999999999E-2</v>
@@ -1383,8 +1359,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>85</v>
+      <c r="A17" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B17" s="2">
         <v>8</v>
@@ -1396,10 +1372,10 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1">
         <v>1.4999999999999999E-2</v>
@@ -1410,23 +1386,23 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>86</v>
+      <c r="A18" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1">
         <v>1.4999999999999999E-2</v>
@@ -1437,23 +1413,23 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>88</v>
+      <c r="A19" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G19" s="1">
         <v>1.4999999999999999E-2</v>
@@ -1464,23 +1440,23 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>90</v>
+      <c r="A20" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1">
         <v>1.4999999999999999E-2</v>
@@ -1491,23 +1467,23 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>92</v>
+      <c r="A21" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" s="1">
         <v>1.4999999999999999E-2</v>
@@ -1518,8 +1494,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>94</v>
+      <c r="A22" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1531,10 +1507,10 @@
         <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G22" s="1">
         <v>1.4999999999999999E-2</v>
@@ -1545,8 +1521,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>95</v>
+      <c r="A23" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
@@ -1558,10 +1534,10 @@
         <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G23" s="1">
         <v>0.01</v>
@@ -1572,21 +1548,21 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>103</v>
+      <c r="A24" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B24" s="2">
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G24" s="1">
         <v>0.03</v>
@@ -1597,23 +1573,23 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
-        <v>96</v>
+      <c r="A25" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G25" s="1">
         <v>0.73</v>
@@ -1625,23 +1601,23 @@
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
-        <v>98</v>
+      <c r="A26" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G26" s="1">
         <v>1.3</v>
@@ -1651,225 +1627,175 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="2">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" ref="H27" si="2">G27*B27</f>
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="1"/>
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="1"/>
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="1"/>
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="2">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" ref="H29" si="2">G29*B29</f>
-        <v>7.12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="2">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="14" t="s">
-        <v>49</v>
+      <c r="F30" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G30" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="1"/>
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="2">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="1">
         <f>0.2/4</f>
         <v>0.05</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H30" s="8">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="2">
+    <row r="31" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2">
         <v>5</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="20">
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="20">
         <f>0.15/4</f>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H31" s="21">
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="9">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="9">
         <v>8</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="C32" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G32" s="10">
         <f>0.32</f>
         <v>0.32</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H32" s="18">
         <f t="shared" si="1"/>
         <v>2.56</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G35" s="12" t="s">
+    <row r="33" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G33" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="13">
-        <f>SUM(H2:H34)</f>
-        <v>18.922499999999999</v>
+      <c r="H33" s="13">
+        <f>SUM(H2:H32)</f>
+        <v>17.272500000000001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F34" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F30" r:id="rId2" xr:uid="{C97E96C0-3AB0-46BC-A88D-1A8084E49307}"/>
-    <hyperlink ref="F29" r:id="rId3" xr:uid="{51B5780E-50E1-4DD3-8FC4-E8BC71144ECC}"/>
+    <hyperlink ref="F32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F28" r:id="rId2" xr:uid="{C97E96C0-3AB0-46BC-A88D-1A8084E49307}"/>
+    <hyperlink ref="F27" r:id="rId3" xr:uid="{51B5780E-50E1-4DD3-8FC4-E8BC71144ECC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
